--- a/nr-inpatient-to-patient/ig/ValueSet-fr-current-medication-document-type.xlsx
+++ b/nr-inpatient-to-patient/ig/ValueSet-fr-current-medication-document-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T11:35:07+00:00</t>
+    <t>2025-07-21T11:50:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
